--- a/いword.xlsx
+++ b/いword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C7A43A-BDE2-4F9D-82D4-AD18C3A0C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89359AB-2E5C-4A2C-AEAE-EA28C77D518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="13332" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,10 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>くやし</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>つまらない</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -947,6 +943,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>軟らかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严格的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くやしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -963,14 +990,18 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>严格的）</t>
+      <t>琐碎的）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>軟らかい</t>
+    <t>親しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したしい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1116,6 +1147,7 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1443,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1857,7 +1889,7 @@
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -1893,10 +1925,10 @@
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="8"/>
     </row>
@@ -1966,13 +1998,13 @@
     </row>
     <row r="38" spans="1:3" ht="18">
       <c r="A38" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -2084,7 +2116,7 @@
         <v>140</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18">
@@ -2092,15 +2124,15 @@
         <v>140</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
       <c r="A52" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18">
@@ -2145,13 +2177,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="18">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2191,13 +2223,13 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="18">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2298,7 +2330,7 @@
     </row>
     <row r="73" spans="1:3" ht="18">
       <c r="A73" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>202</v>
@@ -2306,32 +2338,51 @@
     </row>
     <row r="74" spans="1:3" ht="18">
       <c r="A74" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
         <v>204</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18">
       <c r="A75" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18">
       <c r="A76" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>213</v>
+    </row>
+    <row r="77" spans="1:3" ht="18">
+      <c r="A77" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18">
+      <c r="A78" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89359AB-2E5C-4A2C-AEAE-EA28C77D518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B3EA9-D5DC-481F-9481-77386B65F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="238">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>おいしい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>おおい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,9 +245,6 @@
   <si>
     <t>やさしい</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>うつくしい</t>
   </si>
   <si>
     <t>美しい</t>
@@ -513,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>霧が深い</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>あたたかい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暖かい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>広い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>広島｜ひろしま</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,10 +563,6 @@
   </si>
   <si>
     <t>（符合期望的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>おおき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -796,10 +773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（臭的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>しょっぱい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1004,12 +977,111 @@
     <t>したしい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>凄い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（厉害的、惊人的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸っぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気持ち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外観｜がいかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつくしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懐かしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なつかしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怀念的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この薬は苦いです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねむい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（很困的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,6 +1221,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1170,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1195,6 +1274,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1475,914 +1555,932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="7" width="15" customWidth="1"/>
+    <col min="14" max="14" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6">
-      <c r="E1" t="s">
+    <row r="1" spans="1:20" ht="15.6">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18">
+      <c r="A5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18">
+      <c r="A8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" t="s">
+        <v>172</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.6">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17.399999999999999">
+      <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="L12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18">
+      <c r="A13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="L13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="43.8">
+      <c r="A15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18">
+      <c r="A16" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18">
+      <c r="A17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18">
+      <c r="A18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18">
+      <c r="A19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="L19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18">
+      <c r="A20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="18">
+      <c r="A21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="18">
+      <c r="A22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="L22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18">
+      <c r="A23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="L23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18">
+      <c r="A24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" ht="18">
+      <c r="A25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18">
+      <c r="A26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="18">
+      <c r="A27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="18">
+      <c r="A28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18">
+      <c r="A29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18">
+      <c r="A30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18">
+      <c r="A31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18">
+      <c r="A32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="18">
+      <c r="A33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="1" t="s">
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="18">
+      <c r="A36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18">
+      <c r="A37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18">
+      <c r="A38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18">
+      <c r="A39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18">
+      <c r="A40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18">
+      <c r="A41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18">
+      <c r="A42" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B42" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18">
+      <c r="A43" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B43" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="18">
-      <c r="A8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18">
-      <c r="A9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18">
+      <c r="A44" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18">
+      <c r="A45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18">
+      <c r="A46" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" ht="18">
+      <c r="A47" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18">
-      <c r="A10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="B47" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18">
+      <c r="A48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18">
+      <c r="A49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18">
+      <c r="A50" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18">
+      <c r="A51" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="18">
+      <c r="A52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="18">
-      <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17.399999999999999">
-      <c r="A12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.2">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="I13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18">
-      <c r="A14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18">
-      <c r="A16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="18">
-      <c r="A17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18">
-      <c r="A20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18">
-      <c r="A21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18">
-      <c r="A22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18">
-      <c r="A24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="18">
-      <c r="A25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="C52" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" ht="18">
+      <c r="A53" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18">
+      <c r="A54" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="18">
-      <c r="A28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18">
-      <c r="A29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18">
-      <c r="A30" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="18">
-      <c r="A31" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="18">
-      <c r="A32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18">
-      <c r="A34" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18">
-      <c r="A35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18">
-      <c r="A36" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18">
-      <c r="A37" s="8"/>
-      <c r="B37" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18">
-      <c r="A38" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18">
-      <c r="A39" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18">
-      <c r="A40" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="18">
-      <c r="A41" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18">
-      <c r="A42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" ht="18">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" ht="18">
-      <c r="A44" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18">
-      <c r="A45" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" ht="18">
-      <c r="A46" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18">
-      <c r="A47" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18">
-      <c r="A48" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18">
-      <c r="A49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18">
-      <c r="A50" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18">
-      <c r="A51" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18">
-      <c r="A52" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18">
-      <c r="A53" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18">
-      <c r="A54" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18">
-      <c r="A55" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18">
-      <c r="A56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18">
-      <c r="A57" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="18" t="s">
+      <c r="C54" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18">
-      <c r="A58" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18">
-      <c r="A59" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18">
-      <c r="A60" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18">
-      <c r="A61" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18">
-      <c r="A62" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18">
-      <c r="A63" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18">
-      <c r="A64" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="18">
-      <c r="A65" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18">
-      <c r="A66" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18">
-      <c r="A67" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18">
-      <c r="A68" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18">
-      <c r="A69" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="18">
-      <c r="A70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18">
-      <c r="A71" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="18">
-      <c r="A72" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="18">
-      <c r="A73" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="18">
-      <c r="A74" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="18">
-      <c r="A75" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="18">
-      <c r="A76" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18">
-      <c r="A77" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18">
-      <c r="A78" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>223</v>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" ht="18">
+      <c r="A55" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18">
+      <c r="A56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B3EA9-D5DC-481F-9481-77386B65F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714AA84-A64B-44B1-B878-3532483F21CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="231">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
     <t>むずかしい</t>
   </si>
   <si>
-    <t>難しいね</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,11 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>悪い政治｜わるいせいじ
-×が悪い｜ばつがわるい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>薄い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,41 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>緩い</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ゆるい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（宽松的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>容易的）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（痛苦的，辛苦的）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,30 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詳しい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>くわしい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（详细的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煩わしい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>わずらわしい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（繁琐的，麻烦的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易しい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（地势/情形险峻的，危险的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>くさい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,10 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>悲しい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>薄暗い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -853,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速い</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遅い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -886,29 +806,6 @@
   </si>
   <si>
     <t>いくい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>困难的）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1076,12 +973,91 @@
     <t>（很困的）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪い政治｜わるいせいじ
+×が悪い｜ばつがわるい（地势/情形险峻的，危险的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容易的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（害羞的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,6 +1148,65 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="PingFangSC-Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="黑体"/>
@@ -1179,27 +1214,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="PingFangSC-Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
@@ -1207,15 +1246,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1223,10 +1264,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1249,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1265,16 +1312,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1555,933 +1611,865 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="15" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="10" width="15" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" ht="15.6">
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18">
+      <c r="A2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18">
+      <c r="A4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="71.400000000000006">
+      <c r="A5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18">
+      <c r="A6" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18">
+      <c r="A7" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18">
+      <c r="A8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18">
+      <c r="A9" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="18">
+      <c r="A10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="O10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18">
+      <c r="A11" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V11" t="s">
+        <v>160</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18">
+      <c r="A12" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="O12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18">
+      <c r="A13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="O13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" ht="18">
+      <c r="D14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:23" ht="18">
+      <c r="D15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" ht="18">
+      <c r="D16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="O16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="18">
+      <c r="D17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="4:17" ht="18">
+      <c r="D18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="4:17" ht="18">
+      <c r="D19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="O19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" ht="18">
+      <c r="D20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="4:17" ht="18">
+      <c r="D21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="4:17" ht="18">
+      <c r="D22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="O22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" ht="18">
+      <c r="D23" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="O23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="18">
+      <c r="D24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="O24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" ht="18">
+      <c r="D25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" ht="18">
+      <c r="D26" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" ht="18">
+      <c r="D27" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="O27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" ht="18">
+      <c r="D28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="18">
+      <c r="D29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" ht="18">
+      <c r="D30" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="4:17" ht="18">
+      <c r="D31" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="18">
+      <c r="D32" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="18">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="18">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="18">
-      <c r="A5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="18">
-      <c r="A7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="18">
-      <c r="A8" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="18">
-      <c r="A9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="18">
-      <c r="A10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="S10" t="s">
-        <v>172</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.6">
-      <c r="A11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17.399999999999999">
-      <c r="A12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="L12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="18">
-      <c r="A13" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="L13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="18">
-      <c r="A14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="43.8">
-      <c r="A15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="18">
-      <c r="A16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18">
-      <c r="A17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18">
-      <c r="A18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="18">
-      <c r="A19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="L19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18">
-      <c r="A20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="18">
-      <c r="A21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="18">
-      <c r="A22" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="L22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="18">
-      <c r="A23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="L23" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="18">
-      <c r="A24" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" ht="18">
-      <c r="A25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18">
-      <c r="A26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="18">
-      <c r="A27" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="18">
-      <c r="A28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="18">
-      <c r="A29" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="18">
-      <c r="A30" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="18">
-      <c r="A31" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18">
-      <c r="A32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18">
-      <c r="A34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18">
-      <c r="A35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" ht="18">
-      <c r="A36" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18">
-      <c r="A38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18">
-      <c r="A39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18">
-      <c r="A40" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18">
-      <c r="A41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18">
-      <c r="A42" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18">
-      <c r="A43" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18">
-      <c r="A44" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18">
-      <c r="A45" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18">
-      <c r="A46" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" ht="18">
-      <c r="A47" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18">
-      <c r="A49" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18">
-      <c r="A50" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18">
-      <c r="A51" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="18">
-      <c r="A52" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="1:4" ht="18">
-      <c r="A53" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18">
-      <c r="A54" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" ht="18">
-      <c r="A55" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18">
-      <c r="A56" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>237</v>
-      </c>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="18"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714AA84-A64B-44B1-B878-3532483F21CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1A0885-E2E7-4EB8-82B9-E6192A98CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,6 +1052,115 @@
     <t>だいだい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罕见的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいほうけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかくけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんかくけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>円形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうほうけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐ろしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おそろしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（可怕的，惊人的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怖ろしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんじき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎんいろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1189,13 +1298,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -1270,10 +1372,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="PingFangSC-Medium"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1296,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1325,12 +1433,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1613,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1718,10 +1825,10 @@
       <c r="L3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="28" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="7" t="s">
@@ -1810,10 +1917,10 @@
       <c r="H5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="10" t="s">
         <v>71</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -1842,13 +1949,13 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="18">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="10" t="s">
         <v>173</v>
       </c>
@@ -1892,13 +1999,13 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="18">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>226</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1941,13 +2048,13 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="18">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1991,13 +2098,13 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="18">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -2028,7 +2135,7 @@
       <c r="S9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" t="s">
         <v>178</v>
       </c>
       <c r="U9" s="4" t="s">
@@ -2108,10 +2215,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="18">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -2130,6 +2237,12 @@
       <c r="P12" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="U12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="18">
       <c r="A13" s="7" t="s">
@@ -2158,6 +2271,12 @@
         <v>44</v>
       </c>
       <c r="Q13" s="8"/>
+      <c r="U13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="V13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="18">
       <c r="D14" s="10" t="s">
@@ -2166,6 +2285,9 @@
       <c r="E14" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="K14" t="s">
+        <v>232</v>
+      </c>
       <c r="O14" s="10" t="s">
         <v>212</v>
       </c>
@@ -2278,12 +2400,14 @@
         <v>197</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="21" spans="4:17" ht="18">
       <c r="D21" s="10" t="s">
@@ -2293,10 +2417,10 @@
         <v>141</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="8"/>
     </row>
@@ -2309,11 +2433,12 @@
       </c>
       <c r="G22" s="8"/>
       <c r="O22" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="4:17" ht="18">
       <c r="D23" s="10" t="s">
@@ -2323,32 +2448,29 @@
         <v>175</v>
       </c>
       <c r="G23" s="13"/>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="18">
+      <c r="D24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="O24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" ht="18">
-      <c r="D24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" t="s">
-        <v>228</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="O24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="4:17" ht="18">
@@ -2407,65 +2529,113 @@
       </c>
     </row>
     <row r="28" spans="4:17" ht="18">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="18">
+      <c r="D29" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+      <c r="O29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" ht="18">
+      <c r="D30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="4:17" ht="18">
-      <c r="D29" s="7" t="s">
+      <c r="G30" s="17"/>
+      <c r="O30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="18">
+      <c r="D31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="4:17" ht="18">
-      <c r="D30" s="10" t="s">
+      <c r="O31" t="s">
+        <v>233</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="18">
+      <c r="D32" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="4:17" ht="18">
-      <c r="D31" s="10" t="s">
+      <c r="O32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" ht="18">
+      <c r="D33" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="32" spans="4:17" ht="18">
-      <c r="D32" s="27" t="s">
+      <c r="O33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" ht="18">
+      <c r="D34" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E34" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F34" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
+    <row r="41" spans="4:16">
       <c r="G41" s="8"/>
     </row>
-    <row r="46" spans="7:7">
+    <row r="46" spans="4:16">
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="7:7">
+    <row r="47" spans="4:16">
       <c r="G47" s="18"/>
     </row>
     <row r="49" spans="7:7">

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1A0885-E2E7-4EB8-82B9-E6192A98CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7329F66-1C08-4EDD-BBF4-0E4AEBE4A55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="254">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,12 +1161,34 @@
     <t>ぎんいろ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>慌ただしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわただしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（慌张的，不稳的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1382,6 +1404,14 @@
       <color rgb="FFFF0000"/>
       <name val="PingFangSC-Medium"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1720,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2629,6 +2659,17 @@
         <v>221</v>
       </c>
     </row>
+    <row r="35" spans="4:16" ht="18">
+      <c r="D35" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
     <row r="41" spans="4:16">
       <c r="G41" s="8"/>
     </row>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7329F66-1C08-4EDD-BBF4-0E4AEBE4A55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6AAAC-B762-43C1-9E9E-7AA7C92DB679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="257">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,6 +1180,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>（慌张的，不稳的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面倒くさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めんどうくさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事情困难的）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1750,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2078,14 +2111,14 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="18">
-      <c r="A8" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>159</v>
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>29</v>
@@ -2129,13 +2162,13 @@
     </row>
     <row r="9" spans="1:23" ht="18">
       <c r="A9" s="22" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>227</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>51</v>
@@ -2176,11 +2209,14 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="18">
-      <c r="A10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>116</v>
+      <c r="A10" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>59</v>
@@ -2210,11 +2246,11 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="18">
-      <c r="A11" s="10" t="s">
-        <v>186</v>
+      <c r="A11" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>133</v>
@@ -2245,11 +2281,11 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="18">
-      <c r="A12" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>188</v>
+      <c r="A12" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>90</v>
@@ -2275,14 +2311,11 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="18">
-      <c r="A13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>137</v>
+      <c r="A13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>101</v>
@@ -2309,6 +2342,15 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="18">
+      <c r="A14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" s="10" t="s">
         <v>104</v>
       </c>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6AAAC-B762-43C1-9E9E-7AA7C92DB679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DE79A7-8D3A-4547-A7B2-96BA2DD0A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="269">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,12 +1216,81 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>幼い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おさない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（幼小的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きつい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きつい酒｜烈酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くどい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（冗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>长啰嗦，叨唠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（狡猾的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,6 +1514,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1467,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,6 +1576,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1783,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2369,6 +2445,12 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="18">
+      <c r="B15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>261</v>
+      </c>
       <c r="D15" s="10" t="s">
         <v>105</v>
       </c>
@@ -2594,10 +2676,13 @@
       </c>
       <c r="G27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>143</v>
+        <v>258</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="4:17" ht="18">
@@ -2610,6 +2695,13 @@
       <c r="F28" s="8" t="s">
         <v>245</v>
       </c>
+      <c r="O28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="4:17" ht="18">
       <c r="D29" s="10" t="s">
@@ -2618,10 +2710,10 @@
       <c r="E29" s="10"/>
       <c r="F29" s="8"/>
       <c r="O29" s="7" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="4:17" ht="18">
@@ -2635,11 +2727,11 @@
         <v>199</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="O30" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="P30" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="4:17" ht="18">
@@ -2649,11 +2741,11 @@
       <c r="E31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="O31" t="s">
-        <v>233</v>
+      <c r="O31" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="4:17" ht="18">
@@ -2667,10 +2759,10 @@
         <v>204</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="4:16" ht="18">
@@ -2683,11 +2775,11 @@
       <c r="F33" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>239</v>
+      <c r="O33" t="s">
+        <v>233</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="4:16" ht="18">
@@ -2700,6 +2792,12 @@
       <c r="F34" s="13" t="s">
         <v>221</v>
       </c>
+      <c r="O34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="35" spans="4:16" ht="18">
       <c r="D35" s="10" t="s">
@@ -2710,6 +2808,23 @@
       </c>
       <c r="F35" s="13" t="s">
         <v>253</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" ht="18">
+      <c r="D36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="4:16">

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DE79A7-8D3A-4547-A7B2-96BA2DD0A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D564EB-B144-465F-B435-7B7989A46ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="273">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,6 +1283,22 @@
   </si>
   <si>
     <t>狡い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貧しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まずしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（贫穷的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（亲切的）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1860,7 +1876,7 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2741,6 +2757,9 @@
       <c r="E31" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="F31" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="O31" s="7" t="s">
         <v>237</v>
       </c>
@@ -2825,6 +2844,17 @@
       </c>
       <c r="F36" s="29" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="4:16" ht="18">
+      <c r="D37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="4:16">

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D564EB-B144-465F-B435-7B7989A46ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C84FD-6003-4DF9-B960-5221DF1FE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="282">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1299,6 +1299,71 @@
   </si>
   <si>
     <t>（亲切的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かっこ悪い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かっこわるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（难看的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冗长的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乏味的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申し訳ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうしわけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（非常抱歉的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緩い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆるい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2482,6 +2547,12 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="18">
+      <c r="A16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="D16" s="10" t="s">
         <v>112</v>
       </c>
@@ -2502,7 +2573,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="4:17" ht="18">
+    <row r="17" spans="1:17" ht="18">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="10" t="s">
         <v>129</v>
       </c>
@@ -2520,7 +2594,7 @@
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="4:17" ht="18">
+    <row r="18" spans="1:17" ht="18">
       <c r="D18" s="7" t="s">
         <v>127</v>
       </c>
@@ -2538,7 +2612,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="4:17" ht="18">
+    <row r="19" spans="1:17" ht="18">
       <c r="D19" s="7" t="s">
         <v>138</v>
       </c>
@@ -2550,16 +2624,14 @@
       </c>
       <c r="G19" s="8"/>
       <c r="O19" s="10" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" ht="18">
+        <v>281</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" ht="18">
       <c r="D20" s="10" t="s">
         <v>140</v>
       </c>
@@ -2570,16 +2642,16 @@
         <v>197</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" ht="18">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18">
       <c r="D21" s="10" t="s">
         <v>142</v>
       </c>
@@ -2587,14 +2659,16 @@
         <v>141</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="4:17" ht="18">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18">
       <c r="D22" s="7" t="s">
         <v>153</v>
       </c>
@@ -2603,14 +2677,14 @@
       </c>
       <c r="G22" s="8"/>
       <c r="O22" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="4:17" ht="18">
+    <row r="23" spans="1:17" ht="18">
       <c r="D23" s="10" t="s">
         <v>174</v>
       </c>
@@ -2619,13 +2693,14 @@
       </c>
       <c r="G23" s="13"/>
       <c r="O23" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" ht="18">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" ht="18">
       <c r="D24" s="10" t="s">
         <v>179</v>
       </c>
@@ -2636,31 +2711,28 @@
         <v>228</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="O24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" ht="18">
+      <c r="O24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18">
       <c r="D25" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17" ht="18">
+      <c r="O25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18">
       <c r="D26" s="10" t="s">
         <v>182</v>
       </c>
@@ -2671,16 +2743,16 @@
         <v>183</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" ht="18">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18">
       <c r="D27" s="10" t="s">
         <v>195</v>
       </c>
@@ -2691,17 +2763,17 @@
         <v>190</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="O27" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" ht="18">
+      <c r="O27" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18">
       <c r="D28" s="10" t="s">
         <v>243</v>
       </c>
@@ -2712,27 +2784,30 @@
         <v>245</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="4:17" ht="18">
+        <v>258</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18">
       <c r="D29" s="10" t="s">
         <v>246</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="8"/>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" ht="18">
+        <v>263</v>
+      </c>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" ht="18">
       <c r="D30" s="7" t="s">
         <v>45</v>
       </c>
@@ -2743,14 +2818,14 @@
         <v>199</v>
       </c>
       <c r="G30" s="17"/>
+      <c r="O30" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="P30" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" ht="18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18">
       <c r="D31" s="7" t="s">
         <v>200</v>
       </c>
@@ -2760,14 +2835,14 @@
       <c r="F31" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" ht="18">
+        <v>264</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18">
       <c r="D32" s="10" t="s">
         <v>202</v>
       </c>
@@ -2778,10 +2853,10 @@
         <v>204</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="4:16" ht="18">
@@ -2794,11 +2869,11 @@
       <c r="F33" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="O33" t="s">
-        <v>233</v>
+      <c r="O33" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="4:16" ht="18">
@@ -2811,11 +2886,11 @@
       <c r="F34" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>241</v>
+      <c r="O34" t="s">
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="4:16" ht="18">
@@ -2829,10 +2904,10 @@
         <v>253</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="4:16" ht="18">
@@ -2845,6 +2920,12 @@
       <c r="F36" s="29" t="s">
         <v>267</v>
       </c>
+      <c r="O36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="37" spans="4:16" ht="18">
       <c r="D37" s="7" t="s">
@@ -2855,6 +2936,28 @@
       </c>
       <c r="F37" s="29" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" ht="18">
+      <c r="D38" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" ht="18">
+      <c r="D39" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="4:16">

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C84FD-6003-4DF9-B960-5221DF1FE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC46113-8688-4BDC-ADCE-B972EC9923DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>あおい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青ｓい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1364,6 +1360,10 @@
   </si>
   <si>
     <t>ゆるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1956,30 +1956,30 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.6">
       <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
-        <v>209</v>
-      </c>
       <c r="K1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="18">
       <c r="A2" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>1</v>
@@ -1988,18 +1988,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>13</v>
@@ -2008,16 +2008,16 @@
         <v>12</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18">
@@ -2034,16 +2034,16 @@
         <v>3</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O3" s="27" t="s">
         <v>15</v>
@@ -2052,13 +2052,13 @@
         <v>14</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="U3" t="s">
         <v>6</v>
@@ -2069,100 +2069,100 @@
     </row>
     <row r="4" spans="1:23" ht="18">
       <c r="A4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="R4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="U4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="71.400000000000006">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="K5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="R5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>16</v>
@@ -2170,46 +2170,46 @@
     </row>
     <row r="6" spans="1:23" ht="18">
       <c r="A6" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U6" t="s">
         <v>8</v>
@@ -2220,45 +2220,45 @@
     </row>
     <row r="7" spans="1:23" ht="18">
       <c r="A7" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>194</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="R7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>11</v>
@@ -2269,308 +2269,308 @@
     </row>
     <row r="8" spans="1:23" ht="18">
       <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
         <v>254</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>256</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" t="s">
         <v>148</v>
       </c>
-      <c r="I8" t="s">
-        <v>149</v>
-      </c>
       <c r="K8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="R8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18">
       <c r="A9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>159</v>
-      </c>
       <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="J9" s="8"/>
       <c r="O9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="R9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" t="s">
         <v>177</v>
       </c>
-      <c r="T9" t="s">
-        <v>178</v>
-      </c>
       <c r="U9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="18">
       <c r="A10" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F10" s="8"/>
       <c r="O10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="U10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="18">
       <c r="A11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="D11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="U11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="18">
       <c r="A12" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="8"/>
       <c r="O12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="18">
       <c r="A13" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="D13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="U13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="V13" t="s">
         <v>249</v>
-      </c>
-      <c r="V13" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="18">
       <c r="A14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="18">
       <c r="B15" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" t="s">
         <v>260</v>
       </c>
-      <c r="C15" t="s">
-        <v>261</v>
-      </c>
       <c r="D15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="O15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="18">
       <c r="A16" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="G16" s="7"/>
       <c r="O16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18">
@@ -2578,386 +2578,386 @@
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
       <c r="D17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="O17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" ht="18">
       <c r="D18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="18">
       <c r="D19" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
         <v>156</v>
-      </c>
-      <c r="F19" t="s">
-        <v>157</v>
       </c>
       <c r="G19" s="8"/>
       <c r="O19" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="P19" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="18">
       <c r="D20" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18">
       <c r="D21" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="Q21" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18">
       <c r="D22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G22" s="8"/>
       <c r="O22" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" ht="18">
       <c r="D23" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="G23" s="13"/>
       <c r="O23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" ht="18">
       <c r="D24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="F24" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G24" s="17"/>
       <c r="O24" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18">
       <c r="D25" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18">
       <c r="D26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="O26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18">
       <c r="D27" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="G27" s="7"/>
       <c r="O27" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="Q27" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="18">
       <c r="D28" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>245</v>
-      </c>
       <c r="O28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="18">
       <c r="D29" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="8"/>
       <c r="O29" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="18">
       <c r="D30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G30" s="17"/>
       <c r="O30" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="18">
       <c r="D31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="18">
       <c r="D32" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="O32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="4:16" ht="18">
       <c r="D33" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>217</v>
-      </c>
       <c r="O33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="34" spans="4:16" ht="18">
       <c r="D34" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="O34" t="s">
+        <v>232</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="4:16" ht="18">
       <c r="D35" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>253</v>
-      </c>
       <c r="O35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="4:16" ht="18">
       <c r="D36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>267</v>
-      </c>
       <c r="O36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="37" spans="4:16" ht="18">
       <c r="D37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="29" t="s">
         <v>270</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="4:16" ht="18">
       <c r="D38" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="39" spans="4:16" ht="18">
       <c r="D39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="29" t="s">
         <v>278</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="41" spans="4:16">

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC46113-8688-4BDC-ADCE-B972EC9923DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53180379-5CA2-4607-B0C5-8AC1182EC484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ABAB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="334">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1366,12 +1367,249 @@
     <t>青い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>わちゃわちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おどおど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提心吊胆的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どきどき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忐忑不安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くらくら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にこにこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニコニコアニメ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎりぎり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧张的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑嘻嘻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>グズグズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚図愚図</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨蹭的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐずぐず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふわふわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔软的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真っ白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まっしろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真っ青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まっさお</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸し暑い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むしあつい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（闷热的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めでたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可喜可贺的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿体ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もったいない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（浪费的，可惜的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きらきら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キラキラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やすやす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安静的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぎつぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连绵不绝的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐらぐら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>グラグラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇晃的，不稳定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そろそろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うろうろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彷徨的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢慢的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真っ赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賢い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かしこい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（伶俐的，聪明的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,6 +1840,20 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1623,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1658,6 +1910,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1940,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2427,6 +2680,15 @@
       <c r="Q11" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="R11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="U11" s="7" t="s">
         <v>161</v>
       </c>
@@ -2524,9 +2786,15 @@
         <v>84</v>
       </c>
       <c r="Q14" s="8"/>
+      <c r="U14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="18">
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C15" t="s">
@@ -2545,6 +2813,12 @@
         <v>87</v>
       </c>
       <c r="Q15" s="8"/>
+      <c r="U15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="18">
       <c r="A16" s="7" t="s">
@@ -2572,11 +2846,20 @@
       <c r="Q16" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="U16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="18">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>128</v>
       </c>
@@ -2595,6 +2878,15 @@
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" ht="18">
+      <c r="A18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>312</v>
+      </c>
       <c r="D18" s="7" t="s">
         <v>126</v>
       </c>
@@ -2960,6 +3252,17 @@
         <v>278</v>
       </c>
     </row>
+    <row r="40" spans="4:16" ht="18">
+      <c r="D40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
     <row r="41" spans="4:16">
       <c r="G41" s="8"/>
     </row>
@@ -2971,6 +3274,155 @@
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970D5618-9F6A-4BC0-9FB0-CD218EE042FA}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18">
+      <c r="A3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18">
+      <c r="A4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18">
+      <c r="A7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18">
+      <c r="A9" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18">
+      <c r="A10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18">
+      <c r="A12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18">
+      <c r="A14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" t="s">
+        <v>327</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53180379-5CA2-4607-B0C5-8AC1182EC484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB39A7-91AB-45FA-9DA8-0B4B60E894E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="357">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1230,10 +1230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>きつい酒｜烈酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1602,6 +1598,102 @@
   </si>
   <si>
     <t>（伶俐的，聪明的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>べつべつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さまざま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种各样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とんとん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ざあざあ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差不多的，顺利地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（通通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>からから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずきずき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ズキズキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カラカラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水声，哗啦哗啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一跳一跳的疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がらがら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ガラガラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰隆轰隆，空荡荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばらばら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バラバラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散，不一致，凌乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きつい酒｜烈酒、困难的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2193,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2415,7 +2507,7 @@
         <v>84</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>16</v>
@@ -2681,13 +2773,13 @@
         <v>48</v>
       </c>
       <c r="R11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>161</v>
@@ -2787,10 +2879,10 @@
       </c>
       <c r="Q14" s="8"/>
       <c r="U14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="V14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="18">
@@ -2798,7 +2890,7 @@
         <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>104</v>
@@ -2814,18 +2906,18 @@
       </c>
       <c r="Q15" s="8"/>
       <c r="U15" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="18">
       <c r="A16" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>111</v>
@@ -2847,18 +2939,18 @@
         <v>80</v>
       </c>
       <c r="U16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="V16" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18">
       <c r="A17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>308</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>309</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>128</v>
@@ -2879,13 +2971,13 @@
     </row>
     <row r="18" spans="1:17" ht="18">
       <c r="A18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="18" t="s">
         <v>311</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>312</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>126</v>
@@ -2916,10 +3008,10 @@
       </c>
       <c r="G19" s="8"/>
       <c r="O19" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P19" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
@@ -3092,10 +3184,10 @@
       <c r="E29" s="10"/>
       <c r="F29" s="8"/>
       <c r="O29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="Q29" s="7"/>
     </row>
@@ -3125,13 +3217,13 @@
         <v>200</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="18">
@@ -3204,13 +3296,13 @@
     </row>
     <row r="36" spans="4:16" ht="18">
       <c r="D36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>265</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>266</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>238</v>
@@ -3221,46 +3313,46 @@
     </row>
     <row r="37" spans="4:16" ht="18">
       <c r="D37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="38" spans="4:16" ht="18">
       <c r="D38" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="29" t="s">
         <v>273</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="4:16" ht="18">
       <c r="D39" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="40" spans="4:16" ht="18">
       <c r="D40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="29" t="s">
         <v>332</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="41" spans="4:16">
@@ -3283,145 +3375,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970D5618-9F6A-4BC0-9FB0-CD218EE042FA}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="7" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="7" t="s">
+      <c r="B2" t="s">
         <v>284</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18">
-      <c r="A3" s="7" t="s">
+      <c r="B3" t="s">
         <v>286</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18">
-      <c r="A4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18">
+      <c r="A7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18">
-      <c r="A5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18">
+      <c r="A9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18">
+      <c r="A13" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18">
-      <c r="A7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18">
-      <c r="A8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18">
-      <c r="A9" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18">
-      <c r="A12" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="7" t="s">
+      <c r="B13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
+      <c r="A14" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18">
-      <c r="A14" s="7" t="s">
+      <c r="B14" t="s">
         <v>326</v>
       </c>
-      <c r="B14" t="s">
-        <v>327</v>
+    </row>
+    <row r="15" spans="1:8" ht="18">
+      <c r="A15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18">
+      <c r="A16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB39A7-91AB-45FA-9DA8-0B4B60E894E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB3166-FCCD-42D8-A884-17415E9231E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="363">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1694,6 +1694,30 @@
   </si>
   <si>
     <t>きつい酒｜烈酒、困难的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役に立つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やくにたつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役に立たない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やくにたたない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役に立つもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役に立たないもの</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2285,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3243,7 +3267,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="4:16" ht="18">
+    <row r="33" spans="4:17" ht="18">
       <c r="D33" s="10" t="s">
         <v>214</v>
       </c>
@@ -3260,7 +3284,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="4:16" ht="18">
+    <row r="34" spans="4:17" ht="18">
       <c r="D34" s="10" t="s">
         <v>218</v>
       </c>
@@ -3277,7 +3301,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="4:16" ht="18">
+    <row r="35" spans="4:17" ht="18">
       <c r="D35" s="10" t="s">
         <v>250</v>
       </c>
@@ -3294,7 +3318,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="4:16" ht="18">
+    <row r="36" spans="4:17" ht="18">
       <c r="D36" t="s">
         <v>266</v>
       </c>
@@ -3311,7 +3335,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="4:16" ht="18">
+    <row r="37" spans="4:17" ht="18">
       <c r="D37" s="7" t="s">
         <v>267</v>
       </c>
@@ -3321,8 +3345,17 @@
       <c r="F37" s="29" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="38" spans="4:16" ht="18">
+      <c r="O37" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" ht="18">
       <c r="D38" s="10" t="s">
         <v>271</v>
       </c>
@@ -3332,8 +3365,17 @@
       <c r="F38" s="29" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="39" spans="4:16" ht="18">
+      <c r="O38" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" ht="18">
       <c r="D39" s="7" t="s">
         <v>275</v>
       </c>
@@ -3344,7 +3386,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="4:16" ht="18">
+    <row r="40" spans="4:17" ht="18">
       <c r="D40" t="s">
         <v>330</v>
       </c>
@@ -3355,13 +3397,13 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="4:16">
+    <row r="41" spans="4:17">
       <c r="G41" s="8"/>
     </row>
-    <row r="46" spans="4:16">
+    <row r="46" spans="4:17">
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="4:16">
+    <row r="47" spans="4:17">
       <c r="G47" s="18"/>
     </row>
     <row r="49" spans="7:7">
@@ -3377,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970D5618-9F6A-4BC0-9FB0-CD218EE042FA}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/いword.xlsx
+++ b/いword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB3166-FCCD-42D8-A884-17415E9231E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B28B76E-C596-449E-9F23-8CD698840893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="366">
   <si>
     <t>きらい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1718,6 +1718,18 @@
   </si>
   <si>
     <t>役に立たないもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逞しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たくましい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（强壮的，坚强的）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2309,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2751,6 +2763,7 @@
         <v>59</v>
       </c>
       <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
       <c r="O10" s="9" t="s">
         <v>40</v>
       </c>
@@ -3205,7 +3218,9 @@
       <c r="D29" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F29" s="8"/>
       <c r="O29" s="7" t="s">
         <v>260</v>
@@ -3397,7 +3412,16 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="4:17">
+    <row r="41" spans="4:17" ht="18">
+      <c r="D41" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>365</v>
+      </c>
       <c r="G41" s="8"/>
     </row>
     <row r="46" spans="4:17">
